--- a/API/API 설계 조광호.xlsx
+++ b/API/API 설계 조광호.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D0A1BD-AE87-4B8D-8F33-65EE7BF3ECEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="45" windowWidth="10380" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28860" yWindow="45" windowWidth="10380" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -147,13 +146,45 @@
   </si>
   <si>
     <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 전체보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=faq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주묻는질문 전체보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의사항 전체보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=q n a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -211,14 +242,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,17 +530,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="40.125" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -530,7 +563,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -547,7 +580,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -630,28 +663,244 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E42" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E43" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E44" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E45" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E46" s="3" t="s">
         <v>28</v>
       </c>
     </row>

--- a/API/API 설계 조광호.xlsx
+++ b/API/API 설계 조광호.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B05112E-ED78-40DB-BAC5-86400BEEFAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="45" windowWidth="10380" windowHeight="15600"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="16995" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="97">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -149,42 +150,262 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공지사항 전체보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Kmarket/cs/board/list.do?cate1=notice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Kmarket/cs/board/list.do?cate1=faq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자주묻는질문 전체보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문의사항 전체보기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Kmarket/cs/board/list.do?cate1=q n a</t>
+    <t>/Kmarket/cs/board/list.do?cate1=notice&amp;cate2=all</t>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=notice&amp;cate2=all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=faq&amp;cate2=user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=qna&amp;cate2=user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs 메인 &gt; 공지사항 [전체보기] 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs 메인 &gt; 자주묻는질문 [전체보기] 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs 메인 &gt; 문의사항 [전체보기] 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/write.do?cate1=qna&amp;cate2=user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs 메인 &gt; 자주묻는 질문 [회원] 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs 메인 &gt; 자주묻는 질문 [쿠폰/이벤트] 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs 메인 &gt; 자주묻는 질문 [주문/결제] 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs 메인 &gt; 자주묻는 질문 [배송] 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs 메인 &gt; 자주묻는 질문 [취소/반품/교환] 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs 메인 &gt; 자주묻는 질문 [여행/숙박/항공] 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs 메인 &gt; 자주묻는 질문 [안전거래] 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=faq&amp;cate2=user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=faq&amp;cate2=coupon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=faq&amp;cate2=order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=faq&amp;cate2=delivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=faq&amp;cate2=cancel</t>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=faq&amp;cate2=travel</t>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=faq&amp;cate2=safeDeal</t>
+  </si>
+  <si>
+    <t>공지사항 &gt; 전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 &gt; 고객서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 &gt; 안전거래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 &gt; 위해상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 &gt; 이벤트당첨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=notice&amp;cate2=service</t>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=notice&amp;cate2=safeDeal</t>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=notice&amp;cate2=xproduct</t>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=notice&amp;cate2=great</t>
+  </si>
+  <si>
+    <t>공지사항 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs 메인 &gt; 문의글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주묻는 질문 [회원]목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주묻는 질문 [쿠폰/이벤트]목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주묻는 질문 [주문/결제]목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주묻는 질문 [배송]목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주묻는 질문 [취소/반품/교환]목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주묻는 질문 [안전거래]목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주묻는 질문 [여행/숙박//항공]목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=qna&amp;cate2=user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=qna&amp;cate2=coupon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=qna&amp;cate2=order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=qna&amp;cate2=delivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=qna&amp;cate2=cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=qna&amp;cate2=travel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/cs/board/list.do?cate1=qna&amp;cate2=safeDeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의하기 [회원] 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의하기 [쿠폰/이벤트] 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의하기 [주문/결제] 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의하기 [배송] 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의하기 [취소/반품/교환] 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의하기 [여행/숙박/항공] 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의하기 [안전거래] 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의하기 &gt; 회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의하기 &gt; 쿠폰/이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의하기 &gt; 주문/결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의하기 &gt; 배송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의하기 &gt; 취소/반품/교환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의하기 &gt; 여행/숙박/항공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의하기 &gt; 안전거래</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,15 +455,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -530,18 +748,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="40.125" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="49.375" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -563,7 +781,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -580,7 +798,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -663,244 +881,480 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E14" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E15" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E16" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E19" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E28" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E32" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E42" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E44" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E45" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E46" s="3" t="s">
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E42" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E43" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E44" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E45" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E46" s="2" t="s">
         <v>28</v>
       </c>
     </row>
